--- a/Assets/Resources/Chp_1.xlsx
+++ b/Assets/Resources/Chp_1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.242.53559"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1_Chp" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2978">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="3134">
   <si>
     <t>id</t>
   </si>
@@ -8877,51 +8877,408 @@
     <t>2475 2550 반복</t>
   </si>
   <si>
-    <t>875 ~ 900 반복</t>
+    <t>300 ~ 500 순차적 발생</t>
+  </si>
+  <si>
+    <t>700 ~ 730</t>
+  </si>
+  <si>
+    <t>810 ~ 850</t>
+  </si>
+  <si>
+    <t>700 ~ 730 반복</t>
+  </si>
+  <si>
+    <t>810 ~ 850 반복</t>
+  </si>
+  <si>
+    <t>810 ~ 950 반복</t>
+  </si>
+  <si>
+    <t>980 ~ 1080</t>
+  </si>
+  <si>
+    <t>980 ~ 1080 반복</t>
+  </si>
+  <si>
+    <t>1200 반복</t>
+  </si>
+  <si>
+    <t>1130 ~ 1200 반복</t>
+  </si>
+  <si>
+    <t>1240 ~ 1340 반복</t>
+  </si>
+  <si>
+    <t>670 ~ 720반복</t>
+  </si>
+  <si>
+    <t>670 ~ 720 반복</t>
+  </si>
+  <si>
+    <t>970 ~ 1040 반복</t>
+  </si>
+  <si>
+    <t>1080 ~ 1150 반복</t>
+  </si>
+  <si>
+    <t>1230 ~ 1300 반복</t>
+  </si>
+  <si>
+    <t>1340 ~ 1480 반복</t>
+  </si>
+  <si>
+    <t>1530 ~ 1630 반복</t>
+  </si>
+  <si>
+    <t>1750 ~ 1900 반복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 ~ </t>
+  </si>
+  <si>
+    <t>이 집에서 그녀와 함께 지냈다</t>
+  </si>
+  <si>
+    <t>집에 돌아왔을땐 너가 있었다</t>
+  </si>
+  <si>
+    <t>그 사람이 이 집에서 살던 여인이다?</t>
+  </si>
+  <si>
+    <t>2000 ~ 2150 반복</t>
+  </si>
+  <si>
+    <t>2000 ~ 2200 반복</t>
+  </si>
+  <si>
+    <t>리퍼는 집을 바라본다.</t>
+  </si>
+  <si>
+    <t>리퍼가 사진기자를 바라본다.</t>
+  </si>
+  <si>
+    <t>2250 ~</t>
+  </si>
+  <si>
+    <t>없다</t>
+  </si>
+  <si>
+    <t>하지만</t>
+  </si>
+  <si>
+    <t>2300 ~ 2350 반복</t>
+  </si>
+  <si>
+    <t>2400 ~ 2550</t>
+  </si>
+  <si>
+    <t>2400 ~ 2530 반복</t>
+  </si>
+  <si>
+    <t>2550 ~ 2650</t>
+  </si>
+  <si>
+    <t>리퍼는 이동한다</t>
+  </si>
+  <si>
+    <t>1400 ~ 1480 반복</t>
+  </si>
+  <si>
+    <t>1380 ~ 1480 반복</t>
+  </si>
+  <si>
+    <t>일반 재생</t>
+  </si>
+  <si>
+    <t>1320 ~ 1360 반복</t>
+  </si>
+  <si>
+    <t>리퍼는 잠시 서서 얘기한다.</t>
+  </si>
+  <si>
+    <t>2600 ~ 2750 반복</t>
+  </si>
+  <si>
+    <t>사진기자는 서서 얘기한다.</t>
+  </si>
+  <si>
+    <t>리퍼는 다시 이동한다.</t>
+  </si>
+  <si>
+    <t>2800 ~ 2890 반복</t>
+  </si>
+  <si>
+    <t>120 ~ 350 반복</t>
+  </si>
+  <si>
+    <t xml:space="preserve">670 ~ 720 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">810 ~ 950 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">970 ~ 1040 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1080 ~ 1150 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1230 ~ 1300 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1320 ~ 1360 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1380 ~ 1480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1530 ~ 1630 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1750 ~ 1900 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000 ~ 2200 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2300 ~ 2350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2400 ~ 2530 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2600 ~ 2750 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2800 ~ 2890 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 ~ 350 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">120 ~ 360 </t>
+  </si>
+  <si>
+    <t>450 ~ 550</t>
+  </si>
+  <si>
+    <t>570 ~ 620</t>
+  </si>
+  <si>
+    <t>670 ~ 950</t>
+  </si>
+  <si>
+    <t>350 ~ 700</t>
+  </si>
+  <si>
+    <t>350 ~ 520</t>
+  </si>
+  <si>
+    <t>550 ~ 700</t>
+  </si>
+  <si>
+    <t>50 ~ 90</t>
+  </si>
+  <si>
+    <t>150 발생</t>
+  </si>
+  <si>
+    <t>300 발생</t>
+  </si>
+  <si>
+    <t>0 발생</t>
+  </si>
+  <si>
+    <t>2-5 // 퍼가 주저앉아 구역질을 한다.</t>
+  </si>
+  <si>
+    <t>2-4 // 리퍼가 주저앉아 구역질을 한다.</t>
+  </si>
+  <si>
+    <t>2-3 // 농장 앞에서 브리핑을 한다.</t>
+  </si>
+  <si>
+    <t>2-2 // 반갑다는 듯 손을 들어올린다.</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>2-6 // 칼을 떨어트리는 QTE 적군</t>
+  </si>
+  <si>
+    <t>2-7 // 계단 차는 적군</t>
+  </si>
+  <si>
+    <t>210 ~ 310</t>
+  </si>
+  <si>
+    <t>2-8 // 리퍼를 향해 함께 공격하는 적군</t>
+  </si>
+  <si>
+    <t>40 ~ 120</t>
+  </si>
+  <si>
+    <t>170 ~ 230</t>
+  </si>
+  <si>
+    <t>0 ~ 140</t>
+  </si>
+  <si>
+    <t>200 ~ 290</t>
+  </si>
+  <si>
+    <t>585 ~ 620</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>80 ~ 300</t>
+  </si>
+  <si>
+    <t>70 ~ 190</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1</t>
+  </si>
+  <si>
+    <t>!speed 1 2 1</t>
+  </si>
+  <si>
+    <t>!speed 1 5 1</t>
+  </si>
+  <si>
+    <t>!speed 1 10 1</t>
+  </si>
+  <si>
+    <t>!speed 1 3 1</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1, !speed 6 8 0.02</t>
+  </si>
+  <si>
+    <t>!speed 5 9 1, !speed 16 22 1</t>
+  </si>
+  <si>
+    <t>!size 16 20 24, !speed 16 20 1</t>
+  </si>
+  <si>
+    <t>!speed 11 12 1</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1, !speed 6 8 1</t>
+  </si>
+  <si>
+    <t>!speed 1 6 1</t>
+  </si>
+  <si>
+    <t>!speed 1 8 1</t>
+  </si>
+  <si>
+    <t>!speed 1 7 1</t>
+  </si>
+  <si>
+    <t>!speed 1 8 2</t>
+  </si>
+  <si>
+    <t>!speed 1 4 1, !speed 6 8 2</t>
+  </si>
+  <si>
+    <t>!speed 4 12 1, !size 4 12 24</t>
+  </si>
+  <si>
+    <t>!speed 2 4 1</t>
+  </si>
+  <si>
+    <t>!speed 4 5 1</t>
+  </si>
+  <si>
+    <t>0 ~ 100</t>
+  </si>
+  <si>
+    <t>300 ~ 750</t>
+  </si>
+  <si>
+    <t>150 ~ 190</t>
+  </si>
+  <si>
+    <t>235 ~ 280</t>
+  </si>
+  <si>
+    <t>335 ~ 345</t>
+  </si>
+  <si>
+    <t>965 ~ 1095</t>
+  </si>
+  <si>
+    <t>1130 ~ 1250</t>
+  </si>
+  <si>
+    <t>100 ~ 145</t>
+  </si>
+  <si>
+    <t>80 ~ 130</t>
+  </si>
+  <si>
+    <t>850 ~ 960</t>
+  </si>
+  <si>
+    <t>1600 ~ 1750</t>
+  </si>
+  <si>
+    <t>1850 ~ 1950</t>
+  </si>
+  <si>
+    <t>2230 ~ 2380</t>
+  </si>
+  <si>
+    <t>2400 ~ 2470</t>
+  </si>
+  <si>
+    <t>3000 ~ 3200</t>
+  </si>
+  <si>
+    <t>2475 2550</t>
+  </si>
+  <si>
+    <t>순차적</t>
+  </si>
+  <si>
+    <t>360 ~ 500 순차적 발생</t>
+  </si>
+  <si>
+    <t>630 ~ 780 순차적 발생</t>
+  </si>
+  <si>
+    <t>810 ~ 930 순차적 발생</t>
+  </si>
+  <si>
+    <t>410 ~ 540 순차적 발생</t>
   </si>
   <si>
     <t>300 ~ 370 반복</t>
   </si>
   <si>
-    <t>400 부터 순차적 발생</t>
-  </si>
-  <si>
-    <t>900부터 순차적으로 발생</t>
-  </si>
-  <si>
-    <t>400 ~ 510 부터 순차적 발생</t>
-  </si>
-  <si>
     <t>400 ~ 510 순차적 발생</t>
   </si>
   <si>
-    <t>900 ~ 1080 순차적 발생</t>
-  </si>
-  <si>
     <t>560 ~ 640 반복</t>
   </si>
   <si>
     <t>인게임 순차적 발생</t>
   </si>
   <si>
-    <t>순차적 발생</t>
-  </si>
-  <si>
     <t>155 부터 순차적 발생</t>
   </si>
   <si>
     <t>150 ~ 300 순차적 발생</t>
   </si>
   <si>
-    <t>155 부순차적 발생</t>
-  </si>
-  <si>
     <t>700 ~ 950 순차적 발생</t>
   </si>
   <si>
-    <t>1150 ~ 1300 발생</t>
-  </si>
-  <si>
     <t>1150 ~ 1300 순차적 발생</t>
   </si>
   <si>
@@ -8943,52 +9300,164 @@
     <t>2160 순차적 발생</t>
   </si>
   <si>
-    <t>그 사람을 왜 때린거지?</t>
-  </si>
-  <si>
-    <t>뭐였지?</t>
-  </si>
-  <si>
-    <t>내가 왜</t>
+    <t>0 ~ 500 반복</t>
+  </si>
+  <si>
+    <t>1020 ~ 1050 반복</t>
   </si>
   <si>
     <t>... 내가 왜</t>
   </si>
   <si>
-    <t>그 사람을 때린거지?</t>
-  </si>
-  <si>
     <t>그 사람을 때린거지...?</t>
   </si>
   <si>
-    <t>도통 알 수 없군...</t>
-  </si>
-  <si>
-    <t>피러</t>
-  </si>
-  <si>
-    <t>0 ~ 500 반복</t>
+    <t>뭣...</t>
   </si>
   <si>
     <t>길을 걷는 리퍼의 독백</t>
   </si>
   <si>
-    <t>뭣...</t>
-  </si>
-  <si>
-    <t>1020 ~ 1050 반복</t>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>2-10 // 클리어 이후. 적군 대사</t>
+  </si>
+  <si>
+    <t>2-11</t>
+  </si>
+  <si>
+    <t>2-12 // 화면이 불투명하고 리퍼는 고개를 숙이고있다.</t>
+  </si>
+  <si>
+    <t>320 ~ 480</t>
+  </si>
+  <si>
+    <t>320 ~ 400</t>
+  </si>
+  <si>
+    <t>데모에선 안씀</t>
+  </si>
+  <si>
+    <t>400 ~ 500</t>
+  </si>
+  <si>
+    <t>550 ~ 680</t>
+  </si>
+  <si>
+    <t>720 ~ 870</t>
+  </si>
+  <si>
+    <t>900 ~ 1200</t>
+  </si>
+  <si>
+    <t>1230 ~ 1350</t>
+  </si>
+  <si>
+    <t>1360 ~ 1450</t>
+  </si>
+  <si>
+    <t>1480 ~ 1600</t>
+  </si>
+  <si>
+    <t>380 ~ 470 발생</t>
+  </si>
+  <si>
+    <t>310 ~ 400</t>
+  </si>
+  <si>
+    <t>430 ~ 520</t>
+  </si>
+  <si>
+    <t xml:space="preserve">600 ~ </t>
+  </si>
+  <si>
+    <t>600 ~ 750</t>
+  </si>
+  <si>
+    <t>380 ~ 470</t>
+  </si>
+  <si>
+    <t>820 ~ 970</t>
+  </si>
+  <si>
+    <t>1020 ~ 1070</t>
+  </si>
+  <si>
+    <t>1020 ~ 1090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 ~ </t>
+  </si>
+  <si>
+    <t>50 ~ 280</t>
+  </si>
+  <si>
+    <t>50 ~ 280 순차적 발생</t>
+  </si>
+  <si>
+    <t>290 ~ 350</t>
+  </si>
+  <si>
+    <t>370 ~ 500</t>
+  </si>
+  <si>
+    <t>530 ~ 680 순차적 발생</t>
+  </si>
+  <si>
+    <t>730 ~ 780 순차적 발생</t>
+  </si>
+  <si>
+    <t>발톱이 농장 앞에 서있다.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250 ~ </t>
+  </si>
+  <si>
+    <t>200 ~ 500 순차적 발생</t>
+  </si>
+  <si>
+    <t>!size 1 5 2</t>
+  </si>
+  <si>
+    <t>!size 1 7 2</t>
+  </si>
+  <si>
+    <t>!size 16 20 2, !speed 16 20 1</t>
+  </si>
+  <si>
+    <t>!size 13 15 2</t>
+  </si>
+  <si>
+    <t>!size 10 13 2</t>
+  </si>
+  <si>
+    <t>!move 1012</t>
+  </si>
+  <si>
+    <t>!size 1 8 2</t>
+  </si>
+  <si>
+    <t>!size 1 6 2</t>
+  </si>
+  <si>
+    <t>!size 1 9 2</t>
+  </si>
+  <si>
+    <t>!size 1 13 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="64" formatCode="0000"/>
     <numFmt numFmtId="65" formatCode="General"/>
     <numFmt numFmtId="66" formatCode="00000"/>
     <numFmt numFmtId="69" formatCode="0;[Red]0"/>
     <numFmt numFmtId="70" formatCode="@"/>
+    <numFmt numFmtId="75" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9117,7 +9586,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9343,8 +9812,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="45">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -9825,6 +10300,26 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -9975,7 +10470,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="326">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -10850,6 +11345,108 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11173,10 +11770,10 @@
   <sheetPr>
     <tabColor rgb="ff0000"/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11185,7 +11782,7 @@
     <col min="2" max="2" width="8.38000011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="49.00500107" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="10" width="20.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="10" width="26.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="10" width="26.00499916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="18" width="30.50499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -11205,15 +11802,13 @@
       <c r="E1" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="200" t="s">
-        <v>2813</v>
-      </c>
+      <c r="F1" s="200"/>
       <c r="G1" s="209" t="s">
-        <v>2821</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="42">
+      <c r="A2" s="203">
         <v>10001</v>
       </c>
       <c r="B2" s="10">
@@ -11226,14 +11821,14 @@
         <v>680</v>
       </c>
       <c r="F2" s="284" t="s">
-        <v>2945</v>
+        <v>3071</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42">
+      <c r="A3" s="203">
         <v>10002</v>
       </c>
       <c r="B3" s="10">
@@ -11248,7 +11843,7 @@
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42">
+      <c r="A4" s="203">
         <v>10003</v>
       </c>
       <c r="B4" s="10">
@@ -11263,7 +11858,7 @@
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42">
+      <c r="A5" s="203">
         <v>10004</v>
       </c>
       <c r="B5" s="10">
@@ -11278,7 +11873,7 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42">
+      <c r="A6" s="203">
         <v>10005</v>
       </c>
       <c r="B6" s="10">
@@ -11293,7 +11888,7 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42">
+      <c r="A7" s="203">
         <v>10006</v>
       </c>
       <c r="B7" s="10">
@@ -11311,7 +11906,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42">
+      <c r="A8" s="203">
         <v>10007</v>
       </c>
       <c r="B8" s="10">
@@ -11324,17 +11919,17 @@
         <v>20</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>2527</v>
+        <v>3045</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>2949</v>
+        <v>3072</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="42">
+      <c r="A9" s="203">
         <v>10008</v>
       </c>
       <c r="B9" s="10">
@@ -11347,12 +11942,12 @@
         <v>21</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>2527</v>
+        <v>3045</v>
       </c>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="42">
+      <c r="A10" s="203">
         <v>10009</v>
       </c>
       <c r="B10" s="10">
@@ -11365,14 +11960,14 @@
         <v>2296</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>2951</v>
+        <v>3073</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="42">
+      <c r="A11" s="203">
         <v>10010</v>
       </c>
       <c r="B11" s="10">
@@ -11387,7 +11982,7 @@
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="42">
+      <c r="A12" s="203">
         <v>10011</v>
       </c>
       <c r="B12" s="10">
@@ -11402,7 +11997,7 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="42">
+      <c r="A13" s="203">
         <v>10012</v>
       </c>
       <c r="B13" s="10">
@@ -11417,7 +12012,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="42">
+      <c r="A14" s="203">
         <v>10013</v>
       </c>
       <c r="B14" s="10">
@@ -11435,122 +12030,122 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="42"/>
+      <c r="A15" s="203"/>
       <c r="B15" s="10" t="s">
         <v>685</v>
       </c>
       <c r="C15" s="204"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="42">
+      <c r="A16" s="203">
         <v>10014</v>
       </c>
-      <c r="B16" s="264">
+      <c r="B16" s="10">
         <v>1</v>
       </c>
-      <c r="C16" s="268" t="s">
+      <c r="C16" s="207" t="s">
         <v>396</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="316" t="s">
         <v>2302</v>
       </c>
-      <c r="E16" s="37"/>
-      <c r="F16" s="291" t="s">
-        <v>2952</v>
-      </c>
-      <c r="G16" s="38" t="s">
+      <c r="E16" s="206"/>
+      <c r="F16" s="315" t="s">
+        <v>3074</v>
+      </c>
+      <c r="G16" s="211" t="s">
         <v>2312</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="42">
+      <c r="A17" s="203">
         <v>10015</v>
       </c>
-      <c r="B17" s="264">
+      <c r="B17" s="10">
         <v>1</v>
       </c>
-      <c r="C17" s="268" t="s">
+      <c r="C17" s="207" t="s">
         <v>400</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="208" t="s">
         <v>2295</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>2520</v>
-      </c>
-      <c r="F17" s="291"/>
-      <c r="G17" s="38"/>
+      <c r="E17" s="206" t="s">
+        <v>3042</v>
+      </c>
+      <c r="F17" s="315"/>
+      <c r="G17" s="211"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="42">
+      <c r="A18" s="203">
         <v>10016</v>
       </c>
-      <c r="B18" s="264">
+      <c r="B18" s="10">
         <v>1</v>
       </c>
-      <c r="C18" s="268" t="s">
+      <c r="C18" s="207" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="316" t="s">
         <v>2303</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="291"/>
-      <c r="G18" s="102"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="315"/>
+      <c r="G18" s="210"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="42">
+      <c r="A19" s="203">
         <v>10017</v>
       </c>
-      <c r="B19" s="264">
+      <c r="B19" s="10">
         <v>1</v>
       </c>
-      <c r="C19" s="268" t="s">
+      <c r="C19" s="207" t="s">
         <v>396</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="208" t="s">
         <v>2306</v>
       </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="291"/>
-      <c r="G19" s="102"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="315"/>
+      <c r="G19" s="210"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="42">
+      <c r="A20" s="203">
         <v>10018</v>
       </c>
-      <c r="B20" s="264">
+      <c r="B20" s="10">
         <v>1</v>
       </c>
-      <c r="C20" s="268" t="s">
+      <c r="C20" s="207" t="s">
         <v>400</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="316" t="s">
         <v>2307</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="291"/>
-      <c r="G20" s="102"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="315"/>
+      <c r="G20" s="210"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="42">
+      <c r="A21" s="203">
         <v>10019</v>
       </c>
-      <c r="B21" s="264">
+      <c r="B21" s="10">
         <v>1</v>
       </c>
-      <c r="C21" s="268" t="s">
+      <c r="C21" s="207" t="s">
         <v>400</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="316" t="s">
         <v>2311</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="102"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="315"/>
+      <c r="G21" s="210"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="42">
+      <c r="A22" s="203">
         <v>10020</v>
       </c>
       <c r="B22" s="10">
@@ -11563,17 +12158,17 @@
         <v>2801</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>2802</v>
+        <v>3043</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>2954</v>
+        <v>3075</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="42">
+      <c r="A23" s="203">
         <v>10021</v>
       </c>
       <c r="B23" s="10">
@@ -11591,7 +12186,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="42"/>
+      <c r="A24" s="203"/>
       <c r="B24" s="10" t="s">
         <v>685</v>
       </c>
@@ -11599,7 +12194,7 @@
       <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="42">
+      <c r="A25" s="203">
         <v>10022</v>
       </c>
       <c r="B25" s="10">
@@ -11612,17 +12207,17 @@
         <v>756</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>2497</v>
+        <v>3036</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>2955</v>
+        <v>3076</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="42">
+      <c r="A26" s="203">
         <v>10023</v>
       </c>
       <c r="B26" s="10">
@@ -11640,7 +12235,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="42">
+      <c r="A27" s="203">
         <v>10024</v>
       </c>
       <c r="B27" s="10">
@@ -11653,14 +12248,14 @@
         <v>122</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>2957</v>
+        <v>3077</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>2535</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="42">
+      <c r="A28" s="203">
         <v>10025</v>
       </c>
       <c r="B28" s="10">
@@ -11678,7 +12273,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="42">
+      <c r="A29" s="203">
         <v>10026</v>
       </c>
       <c r="B29" s="10">
@@ -11691,7 +12286,7 @@
         <v>136</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>2497</v>
+        <v>3036</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="18" t="s">
@@ -11699,7 +12294,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="42">
+      <c r="A30" s="203">
         <v>10027</v>
       </c>
       <c r="B30" s="10">
@@ -11712,14 +12307,14 @@
         <v>2808</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>2959</v>
+        <v>3078</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>2810</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="42">
+      <c r="A31" s="203">
         <v>10028</v>
       </c>
       <c r="B31" s="10">
@@ -11732,17 +12327,17 @@
         <v>169</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>2494</v>
+        <v>3032</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>2960</v>
+        <v>3079</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>2542</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="42">
+      <c r="A32" s="203">
         <v>10029</v>
       </c>
       <c r="B32" s="10">
@@ -11755,17 +12350,17 @@
         <v>170</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>2541</v>
+        <v>3044</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>2961</v>
+        <v>3080</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>2543</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="42">
+      <c r="A33" s="203">
         <v>10030</v>
       </c>
       <c r="B33" s="10">
@@ -11778,17 +12373,17 @@
         <v>166</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>2494</v>
+        <v>3032</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>2962</v>
+        <v>3081</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="42">
+      <c r="A34" s="203">
         <v>10031</v>
       </c>
       <c r="B34" s="10">
@@ -11800,15 +12395,15 @@
       <c r="D34" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="290" t="s">
-        <v>2963</v>
+      <c r="F34" s="15" t="s">
+        <v>3082</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="42">
+      <c r="A35" s="203">
         <v>10032</v>
       </c>
       <c r="B35" s="10">
@@ -11821,15 +12416,15 @@
         <v>176</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>2541</v>
-      </c>
-      <c r="F35" s="290"/>
+        <v>3044</v>
+      </c>
+      <c r="F35" s="15"/>
       <c r="G35" s="18" t="s">
         <v>2543</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="42">
+      <c r="A36" s="203">
         <v>10033</v>
       </c>
       <c r="B36" s="10">
@@ -11841,10 +12436,10 @@
       <c r="D36" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="290"/>
+      <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="42">
+      <c r="A37" s="203">
         <v>10034</v>
       </c>
       <c r="B37" s="10">
@@ -11856,10 +12451,10 @@
       <c r="D37" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="F37" s="290"/>
+      <c r="F37" s="15"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="42">
+      <c r="A38" s="203">
         <v>10035</v>
       </c>
       <c r="B38" s="10">
@@ -11877,7 +12472,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="42">
+      <c r="A39" s="203">
         <v>10036</v>
       </c>
       <c r="B39" s="10">
@@ -11890,14 +12485,14 @@
         <v>164</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>2964</v>
+        <v>3083</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="42">
+      <c r="A40" s="203">
         <v>10037</v>
       </c>
       <c r="B40" s="10">
@@ -11910,19 +12505,20 @@
         <v>711</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>2965</v>
+        <v>3084</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>2548</v>
       </c>
     </row>
     <row r="41" spans="1:7">
+      <c r="A41" s="317"/>
       <c r="B41" s="0" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="42">
+      <c r="A42" s="203">
         <v>10038</v>
       </c>
       <c r="B42" s="0">
@@ -11932,20 +12528,20 @@
         <v>51</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>2969</v>
+        <v>3087</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>2497</v>
+        <v>3036</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>2974</v>
+        <v>3085</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>2975</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="42">
+      <c r="A43" s="203">
         <v>10039</v>
       </c>
       <c r="B43" s="0">
@@ -11955,12 +12551,12 @@
         <v>51</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>2971</v>
+        <v>3088</v>
       </c>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="42">
+      <c r="A44" s="203">
         <v>10040</v>
       </c>
       <c r="B44" s="0">
@@ -11970,11 +12566,14 @@
         <v>51</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>2976</v>
+        <v>3089</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>2977</v>
-      </c>
+        <v>3086</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="F45" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Assets/Resources/Chp_1.xlsx
+++ b/Assets/Resources/Chp_1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.242.53559"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="10.105.234.53029"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="410" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="450" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1_Chp" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="3134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2978" uniqueCount="2978">
   <si>
     <t>id</t>
   </si>
@@ -8877,408 +8877,51 @@
     <t>2475 2550 반복</t>
   </si>
   <si>
-    <t>300 ~ 500 순차적 발생</t>
-  </si>
-  <si>
-    <t>700 ~ 730</t>
-  </si>
-  <si>
-    <t>810 ~ 850</t>
-  </si>
-  <si>
-    <t>700 ~ 730 반복</t>
-  </si>
-  <si>
-    <t>810 ~ 850 반복</t>
-  </si>
-  <si>
-    <t>810 ~ 950 반복</t>
-  </si>
-  <si>
-    <t>980 ~ 1080</t>
-  </si>
-  <si>
-    <t>980 ~ 1080 반복</t>
-  </si>
-  <si>
-    <t>1200 반복</t>
-  </si>
-  <si>
-    <t>1130 ~ 1200 반복</t>
-  </si>
-  <si>
-    <t>1240 ~ 1340 반복</t>
-  </si>
-  <si>
-    <t>670 ~ 720반복</t>
-  </si>
-  <si>
-    <t>670 ~ 720 반복</t>
-  </si>
-  <si>
-    <t>970 ~ 1040 반복</t>
-  </si>
-  <si>
-    <t>1080 ~ 1150 반복</t>
-  </si>
-  <si>
-    <t>1230 ~ 1300 반복</t>
-  </si>
-  <si>
-    <t>1340 ~ 1480 반복</t>
-  </si>
-  <si>
-    <t>1530 ~ 1630 반복</t>
-  </si>
-  <si>
-    <t>1750 ~ 1900 반복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000 ~ </t>
-  </si>
-  <si>
-    <t>이 집에서 그녀와 함께 지냈다</t>
-  </si>
-  <si>
-    <t>집에 돌아왔을땐 너가 있었다</t>
-  </si>
-  <si>
-    <t>그 사람이 이 집에서 살던 여인이다?</t>
-  </si>
-  <si>
-    <t>2000 ~ 2150 반복</t>
-  </si>
-  <si>
-    <t>2000 ~ 2200 반복</t>
-  </si>
-  <si>
-    <t>리퍼는 집을 바라본다.</t>
-  </si>
-  <si>
-    <t>리퍼가 사진기자를 바라본다.</t>
-  </si>
-  <si>
-    <t>2250 ~</t>
-  </si>
-  <si>
-    <t>없다</t>
-  </si>
-  <si>
-    <t>하지만</t>
-  </si>
-  <si>
-    <t>2300 ~ 2350 반복</t>
-  </si>
-  <si>
-    <t>2400 ~ 2550</t>
-  </si>
-  <si>
-    <t>2400 ~ 2530 반복</t>
-  </si>
-  <si>
-    <t>2550 ~ 2650</t>
-  </si>
-  <si>
-    <t>리퍼는 이동한다</t>
-  </si>
-  <si>
-    <t>1400 ~ 1480 반복</t>
-  </si>
-  <si>
-    <t>1380 ~ 1480 반복</t>
-  </si>
-  <si>
-    <t>일반 재생</t>
-  </si>
-  <si>
-    <t>1320 ~ 1360 반복</t>
-  </si>
-  <si>
-    <t>리퍼는 잠시 서서 얘기한다.</t>
-  </si>
-  <si>
-    <t>2600 ~ 2750 반복</t>
-  </si>
-  <si>
-    <t>사진기자는 서서 얘기한다.</t>
-  </si>
-  <si>
-    <t>리퍼는 다시 이동한다.</t>
-  </si>
-  <si>
-    <t>2800 ~ 2890 반복</t>
-  </si>
-  <si>
-    <t>120 ~ 350 반복</t>
-  </si>
-  <si>
-    <t xml:space="preserve">670 ~ 720 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">810 ~ 950 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">970 ~ 1040 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1080 ~ 1150 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1230 ~ 1300 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1320 ~ 1360 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1380 ~ 1480 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1530 ~ 1630 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1750 ~ 1900 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000 ~ 2200 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2300 ~ 2350 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2400 ~ 2530 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2600 ~ 2750 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2800 ~ 2890 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 ~ 350 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">120 ~ 360 </t>
-  </si>
-  <si>
-    <t>450 ~ 550</t>
-  </si>
-  <si>
-    <t>570 ~ 620</t>
-  </si>
-  <si>
-    <t>670 ~ 950</t>
-  </si>
-  <si>
-    <t>350 ~ 700</t>
-  </si>
-  <si>
-    <t>350 ~ 520</t>
-  </si>
-  <si>
-    <t>550 ~ 700</t>
-  </si>
-  <si>
-    <t>50 ~ 90</t>
-  </si>
-  <si>
-    <t>150 발생</t>
-  </si>
-  <si>
-    <t>300 발생</t>
-  </si>
-  <si>
-    <t>0 발생</t>
-  </si>
-  <si>
-    <t>2-5 // 퍼가 주저앉아 구역질을 한다.</t>
-  </si>
-  <si>
-    <t>2-4 // 리퍼가 주저앉아 구역질을 한다.</t>
-  </si>
-  <si>
-    <t>2-3 // 농장 앞에서 브리핑을 한다.</t>
-  </si>
-  <si>
-    <t>2-2 // 반갑다는 듯 손을 들어올린다.</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>2-6 // 칼을 떨어트리는 QTE 적군</t>
-  </si>
-  <si>
-    <t>2-7 // 계단 차는 적군</t>
-  </si>
-  <si>
-    <t>210 ~ 310</t>
-  </si>
-  <si>
-    <t>2-8 // 리퍼를 향해 함께 공격하는 적군</t>
-  </si>
-  <si>
-    <t>40 ~ 120</t>
-  </si>
-  <si>
-    <t>170 ~ 230</t>
-  </si>
-  <si>
-    <t>0 ~ 140</t>
-  </si>
-  <si>
-    <t>200 ~ 290</t>
-  </si>
-  <si>
-    <t>585 ~ 620</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>80 ~ 300</t>
-  </si>
-  <si>
-    <t>70 ~ 190</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1</t>
-  </si>
-  <si>
-    <t>!speed 1 2 1</t>
-  </si>
-  <si>
-    <t>!speed 1 5 1</t>
-  </si>
-  <si>
-    <t>!speed 1 10 1</t>
-  </si>
-  <si>
-    <t>!speed 1 3 1</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1, !speed 6 8 0.02</t>
-  </si>
-  <si>
-    <t>!speed 5 9 1, !speed 16 22 1</t>
-  </si>
-  <si>
-    <t>!size 16 20 24, !speed 16 20 1</t>
-  </si>
-  <si>
-    <t>!speed 11 12 1</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1, !speed 6 8 1</t>
-  </si>
-  <si>
-    <t>!speed 1 6 1</t>
-  </si>
-  <si>
-    <t>!speed 1 8 1</t>
-  </si>
-  <si>
-    <t>!speed 1 7 1</t>
-  </si>
-  <si>
-    <t>!speed 1 8 2</t>
-  </si>
-  <si>
-    <t>!speed 1 4 1, !speed 6 8 2</t>
-  </si>
-  <si>
-    <t>!speed 4 12 1, !size 4 12 24</t>
-  </si>
-  <si>
-    <t>!speed 2 4 1</t>
-  </si>
-  <si>
-    <t>!speed 4 5 1</t>
-  </si>
-  <si>
-    <t>0 ~ 100</t>
-  </si>
-  <si>
-    <t>300 ~ 750</t>
-  </si>
-  <si>
-    <t>150 ~ 190</t>
-  </si>
-  <si>
-    <t>235 ~ 280</t>
-  </si>
-  <si>
-    <t>335 ~ 345</t>
-  </si>
-  <si>
-    <t>965 ~ 1095</t>
-  </si>
-  <si>
-    <t>1130 ~ 1250</t>
-  </si>
-  <si>
-    <t>100 ~ 145</t>
-  </si>
-  <si>
-    <t>80 ~ 130</t>
-  </si>
-  <si>
-    <t>850 ~ 960</t>
-  </si>
-  <si>
-    <t>1600 ~ 1750</t>
-  </si>
-  <si>
-    <t>1850 ~ 1950</t>
-  </si>
-  <si>
-    <t>2230 ~ 2380</t>
-  </si>
-  <si>
-    <t>2400 ~ 2470</t>
-  </si>
-  <si>
-    <t>3000 ~ 3200</t>
-  </si>
-  <si>
-    <t>2475 2550</t>
-  </si>
-  <si>
-    <t>순차적</t>
-  </si>
-  <si>
-    <t>360 ~ 500 순차적 발생</t>
-  </si>
-  <si>
-    <t>630 ~ 780 순차적 발생</t>
-  </si>
-  <si>
-    <t>810 ~ 930 순차적 발생</t>
-  </si>
-  <si>
-    <t>410 ~ 540 순차적 발생</t>
+    <t>875 ~ 900 반복</t>
   </si>
   <si>
     <t>300 ~ 370 반복</t>
   </si>
   <si>
+    <t>400 부터 순차적 발생</t>
+  </si>
+  <si>
+    <t>900부터 순차적으로 발생</t>
+  </si>
+  <si>
+    <t>400 ~ 510 부터 순차적 발생</t>
+  </si>
+  <si>
     <t>400 ~ 510 순차적 발생</t>
   </si>
   <si>
+    <t>900 ~ 1080 순차적 발생</t>
+  </si>
+  <si>
     <t>560 ~ 640 반복</t>
   </si>
   <si>
     <t>인게임 순차적 발생</t>
   </si>
   <si>
+    <t>순차적 발생</t>
+  </si>
+  <si>
     <t>155 부터 순차적 발생</t>
   </si>
   <si>
     <t>150 ~ 300 순차적 발생</t>
   </si>
   <si>
+    <t>155 부순차적 발생</t>
+  </si>
+  <si>
     <t>700 ~ 950 순차적 발생</t>
   </si>
   <si>
+    <t>1150 ~ 1300 발생</t>
+  </si>
+  <si>
     <t>1150 ~ 1300 순차적 발생</t>
   </si>
   <si>
@@ -9300,164 +8943,52 @@
     <t>2160 순차적 발생</t>
   </si>
   <si>
+    <t>그 사람을 왜 때린거지?</t>
+  </si>
+  <si>
+    <t>뭐였지?</t>
+  </si>
+  <si>
+    <t>내가 왜</t>
+  </si>
+  <si>
+    <t>... 내가 왜</t>
+  </si>
+  <si>
+    <t>그 사람을 때린거지?</t>
+  </si>
+  <si>
+    <t>그 사람을 때린거지...?</t>
+  </si>
+  <si>
+    <t>도통 알 수 없군...</t>
+  </si>
+  <si>
+    <t>피러</t>
+  </si>
+  <si>
     <t>0 ~ 500 반복</t>
   </si>
   <si>
+    <t>길을 걷는 리퍼의 독백</t>
+  </si>
+  <si>
+    <t>뭣...</t>
+  </si>
+  <si>
     <t>1020 ~ 1050 반복</t>
-  </si>
-  <si>
-    <t>... 내가 왜</t>
-  </si>
-  <si>
-    <t>그 사람을 때린거지...?</t>
-  </si>
-  <si>
-    <t>뭣...</t>
-  </si>
-  <si>
-    <t>길을 걷는 리퍼의 독백</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>2-10 // 클리어 이후. 적군 대사</t>
-  </si>
-  <si>
-    <t>2-11</t>
-  </si>
-  <si>
-    <t>2-12 // 화면이 불투명하고 리퍼는 고개를 숙이고있다.</t>
-  </si>
-  <si>
-    <t>320 ~ 480</t>
-  </si>
-  <si>
-    <t>320 ~ 400</t>
-  </si>
-  <si>
-    <t>데모에선 안씀</t>
-  </si>
-  <si>
-    <t>400 ~ 500</t>
-  </si>
-  <si>
-    <t>550 ~ 680</t>
-  </si>
-  <si>
-    <t>720 ~ 870</t>
-  </si>
-  <si>
-    <t>900 ~ 1200</t>
-  </si>
-  <si>
-    <t>1230 ~ 1350</t>
-  </si>
-  <si>
-    <t>1360 ~ 1450</t>
-  </si>
-  <si>
-    <t>1480 ~ 1600</t>
-  </si>
-  <si>
-    <t>380 ~ 470 발생</t>
-  </si>
-  <si>
-    <t>310 ~ 400</t>
-  </si>
-  <si>
-    <t>430 ~ 520</t>
-  </si>
-  <si>
-    <t xml:space="preserve">600 ~ </t>
-  </si>
-  <si>
-    <t>600 ~ 750</t>
-  </si>
-  <si>
-    <t>380 ~ 470</t>
-  </si>
-  <si>
-    <t>820 ~ 970</t>
-  </si>
-  <si>
-    <t>1020 ~ 1070</t>
-  </si>
-  <si>
-    <t>1020 ~ 1090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 ~ </t>
-  </si>
-  <si>
-    <t>50 ~ 280</t>
-  </si>
-  <si>
-    <t>50 ~ 280 순차적 발생</t>
-  </si>
-  <si>
-    <t>290 ~ 350</t>
-  </si>
-  <si>
-    <t>370 ~ 500</t>
-  </si>
-  <si>
-    <t>530 ~ 680 순차적 발생</t>
-  </si>
-  <si>
-    <t>730 ~ 780 순차적 발생</t>
-  </si>
-  <si>
-    <t>발톱이 농장 앞에 서있다.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250 ~ </t>
-  </si>
-  <si>
-    <t>200 ~ 500 순차적 발생</t>
-  </si>
-  <si>
-    <t>!size 1 5 2</t>
-  </si>
-  <si>
-    <t>!size 1 7 2</t>
-  </si>
-  <si>
-    <t>!size 16 20 2, !speed 16 20 1</t>
-  </si>
-  <si>
-    <t>!size 13 15 2</t>
-  </si>
-  <si>
-    <t>!size 10 13 2</t>
-  </si>
-  <si>
-    <t>!move 1012</t>
-  </si>
-  <si>
-    <t>!size 1 8 2</t>
-  </si>
-  <si>
-    <t>!size 1 6 2</t>
-  </si>
-  <si>
-    <t>!size 1 9 2</t>
-  </si>
-  <si>
-    <t>!size 1 13 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="64" formatCode="0000"/>
     <numFmt numFmtId="65" formatCode="General"/>
     <numFmt numFmtId="66" formatCode="00000"/>
     <numFmt numFmtId="69" formatCode="0;[Red]0"/>
     <numFmt numFmtId="70" formatCode="@"/>
-    <numFmt numFmtId="75" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -9586,7 +9117,7 @@
       <color theme="1"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9812,14 +9343,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="47">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -10300,26 +9825,6 @@
       <top/>
       <bottom/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -10470,7 +9975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11345,108 +10850,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="75" fontId="20" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="66" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -11770,10 +11173,10 @@
   <sheetPr>
     <tabColor rgb="ff0000"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A31" tabSelected="1" zoomScale="90" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -11782,7 +11185,7 @@
     <col min="2" max="2" width="8.38000011" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" width="49.00500107" customWidth="1" outlineLevel="0"/>
     <col min="5" max="5" style="10" width="20.12999916" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="10" width="26.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="10" width="26.25499916" customWidth="1" outlineLevel="0"/>
     <col min="7" max="7" style="18" width="30.50499916" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -11802,13 +11205,15 @@
       <c r="E1" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="200"/>
+      <c r="F1" s="200" t="s">
+        <v>2813</v>
+      </c>
       <c r="G1" s="209" t="s">
-        <v>2</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="203">
+      <c r="A2" s="42">
         <v>10001</v>
       </c>
       <c r="B2" s="10">
@@ -11821,14 +11226,14 @@
         <v>680</v>
       </c>
       <c r="F2" s="284" t="s">
-        <v>3071</v>
+        <v>2945</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="203">
+      <c r="A3" s="42">
         <v>10002</v>
       </c>
       <c r="B3" s="10">
@@ -11843,7 +11248,7 @@
       <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="203">
+      <c r="A4" s="42">
         <v>10003</v>
       </c>
       <c r="B4" s="10">
@@ -11858,7 +11263,7 @@
       <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="203">
+      <c r="A5" s="42">
         <v>10004</v>
       </c>
       <c r="B5" s="10">
@@ -11873,7 +11278,7 @@
       <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="203">
+      <c r="A6" s="42">
         <v>10005</v>
       </c>
       <c r="B6" s="10">
@@ -11888,7 +11293,7 @@
       <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="203">
+      <c r="A7" s="42">
         <v>10006</v>
       </c>
       <c r="B7" s="10">
@@ -11906,7 +11311,7 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="203">
+      <c r="A8" s="42">
         <v>10007</v>
       </c>
       <c r="B8" s="10">
@@ -11919,17 +11324,17 @@
         <v>20</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>3045</v>
+        <v>2527</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>3072</v>
+        <v>2949</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="203">
+      <c r="A9" s="42">
         <v>10008</v>
       </c>
       <c r="B9" s="10">
@@ -11942,12 +11347,12 @@
         <v>21</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>3045</v>
+        <v>2527</v>
       </c>
       <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="203">
+      <c r="A10" s="42">
         <v>10009</v>
       </c>
       <c r="B10" s="10">
@@ -11960,14 +11365,14 @@
         <v>2296</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>3073</v>
+        <v>2951</v>
       </c>
       <c r="G10" s="18" t="s">
         <v>2293</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="203">
+      <c r="A11" s="42">
         <v>10010</v>
       </c>
       <c r="B11" s="10">
@@ -11982,7 +11387,7 @@
       <c r="F11" s="15"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="203">
+      <c r="A12" s="42">
         <v>10011</v>
       </c>
       <c r="B12" s="10">
@@ -11997,7 +11402,7 @@
       <c r="F12" s="15"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="203">
+      <c r="A13" s="42">
         <v>10012</v>
       </c>
       <c r="B13" s="10">
@@ -12012,7 +11417,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="203">
+      <c r="A14" s="42">
         <v>10013</v>
       </c>
       <c r="B14" s="10">
@@ -12030,122 +11435,122 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="203"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="10" t="s">
         <v>685</v>
       </c>
       <c r="C15" s="204"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="203">
+      <c r="A16" s="42">
         <v>10014</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="264">
         <v>1</v>
       </c>
-      <c r="C16" s="207" t="s">
+      <c r="C16" s="268" t="s">
         <v>396</v>
       </c>
-      <c r="D16" s="316" t="s">
+      <c r="D16" s="41" t="s">
         <v>2302</v>
       </c>
-      <c r="E16" s="206"/>
-      <c r="F16" s="315" t="s">
-        <v>3074</v>
-      </c>
-      <c r="G16" s="211" t="s">
+      <c r="E16" s="37"/>
+      <c r="F16" s="291" t="s">
+        <v>2952</v>
+      </c>
+      <c r="G16" s="38" t="s">
         <v>2312</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="203">
+      <c r="A17" s="42">
         <v>10015</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="264">
         <v>1</v>
       </c>
-      <c r="C17" s="207" t="s">
+      <c r="C17" s="268" t="s">
         <v>400</v>
       </c>
-      <c r="D17" s="208" t="s">
+      <c r="D17" s="36" t="s">
         <v>2295</v>
       </c>
-      <c r="E17" s="206" t="s">
-        <v>3042</v>
-      </c>
-      <c r="F17" s="315"/>
-      <c r="G17" s="211"/>
+      <c r="E17" s="37" t="s">
+        <v>2520</v>
+      </c>
+      <c r="F17" s="291"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="203">
+      <c r="A18" s="42">
         <v>10016</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="264">
         <v>1</v>
       </c>
-      <c r="C18" s="207" t="s">
+      <c r="C18" s="268" t="s">
         <v>396</v>
       </c>
-      <c r="D18" s="316" t="s">
+      <c r="D18" s="41" t="s">
         <v>2303</v>
       </c>
-      <c r="E18" s="206"/>
-      <c r="F18" s="315"/>
-      <c r="G18" s="210"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="102"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="203">
+      <c r="A19" s="42">
         <v>10017</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="264">
         <v>1</v>
       </c>
-      <c r="C19" s="207" t="s">
+      <c r="C19" s="268" t="s">
         <v>396</v>
       </c>
-      <c r="D19" s="208" t="s">
+      <c r="D19" s="36" t="s">
         <v>2306</v>
       </c>
-      <c r="E19" s="206"/>
-      <c r="F19" s="315"/>
-      <c r="G19" s="210"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="291"/>
+      <c r="G19" s="102"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="203">
+      <c r="A20" s="42">
         <v>10018</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="264">
         <v>1</v>
       </c>
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="268" t="s">
         <v>400</v>
       </c>
-      <c r="D20" s="316" t="s">
+      <c r="D20" s="41" t="s">
         <v>2307</v>
       </c>
-      <c r="E20" s="206"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="210"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="291"/>
+      <c r="G20" s="102"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="203">
+      <c r="A21" s="42">
         <v>10019</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="264">
         <v>1</v>
       </c>
-      <c r="C21" s="207" t="s">
+      <c r="C21" s="268" t="s">
         <v>400</v>
       </c>
-      <c r="D21" s="316" t="s">
+      <c r="D21" s="41" t="s">
         <v>2311</v>
       </c>
-      <c r="E21" s="206"/>
-      <c r="F21" s="315"/>
-      <c r="G21" s="210"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="102"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="203">
+      <c r="A22" s="42">
         <v>10020</v>
       </c>
       <c r="B22" s="10">
@@ -12158,17 +11563,17 @@
         <v>2801</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>3043</v>
+        <v>2802</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>3075</v>
+        <v>2954</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="203">
+      <c r="A23" s="42">
         <v>10021</v>
       </c>
       <c r="B23" s="10">
@@ -12186,7 +11591,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="203"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="10" t="s">
         <v>685</v>
       </c>
@@ -12194,7 +11599,7 @@
       <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="203">
+      <c r="A25" s="42">
         <v>10022</v>
       </c>
       <c r="B25" s="10">
@@ -12207,17 +11612,17 @@
         <v>756</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>3036</v>
+        <v>2497</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>3076</v>
+        <v>2955</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>2320</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="203">
+      <c r="A26" s="42">
         <v>10023</v>
       </c>
       <c r="B26" s="10">
@@ -12235,7 +11640,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="203">
+      <c r="A27" s="42">
         <v>10024</v>
       </c>
       <c r="B27" s="10">
@@ -12248,14 +11653,14 @@
         <v>122</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>3077</v>
+        <v>2957</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>2535</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="203">
+      <c r="A28" s="42">
         <v>10025</v>
       </c>
       <c r="B28" s="10">
@@ -12273,7 +11678,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="203">
+      <c r="A29" s="42">
         <v>10026</v>
       </c>
       <c r="B29" s="10">
@@ -12286,7 +11691,7 @@
         <v>136</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>3036</v>
+        <v>2497</v>
       </c>
       <c r="F29" s="15"/>
       <c r="G29" s="18" t="s">
@@ -12294,7 +11699,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="203">
+      <c r="A30" s="42">
         <v>10027</v>
       </c>
       <c r="B30" s="10">
@@ -12307,14 +11712,14 @@
         <v>2808</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>3078</v>
+        <v>2959</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>2810</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="203">
+      <c r="A31" s="42">
         <v>10028</v>
       </c>
       <c r="B31" s="10">
@@ -12327,17 +11732,17 @@
         <v>169</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>3032</v>
+        <v>2494</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>3079</v>
+        <v>2960</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>2542</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="203">
+      <c r="A32" s="42">
         <v>10029</v>
       </c>
       <c r="B32" s="10">
@@ -12350,17 +11755,17 @@
         <v>170</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>3044</v>
+        <v>2541</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>3080</v>
+        <v>2961</v>
       </c>
       <c r="G32" s="18" t="s">
         <v>2543</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="203">
+      <c r="A33" s="42">
         <v>10030</v>
       </c>
       <c r="B33" s="10">
@@ -12373,17 +11778,17 @@
         <v>166</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>3032</v>
+        <v>2494</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>3081</v>
+        <v>2962</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>2544</v>
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="203">
+      <c r="A34" s="42">
         <v>10031</v>
       </c>
       <c r="B34" s="10">
@@ -12395,15 +11800,15 @@
       <c r="D34" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="F34" s="15" t="s">
-        <v>3082</v>
+      <c r="F34" s="290" t="s">
+        <v>2963</v>
       </c>
       <c r="G34" s="18" t="s">
         <v>2546</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="203">
+      <c r="A35" s="42">
         <v>10032</v>
       </c>
       <c r="B35" s="10">
@@ -12416,15 +11821,15 @@
         <v>176</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>3044</v>
-      </c>
-      <c r="F35" s="15"/>
+        <v>2541</v>
+      </c>
+      <c r="F35" s="290"/>
       <c r="G35" s="18" t="s">
         <v>2543</v>
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="203">
+      <c r="A36" s="42">
         <v>10033</v>
       </c>
       <c r="B36" s="10">
@@ -12436,10 +11841,10 @@
       <c r="D36" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F36" s="15"/>
+      <c r="F36" s="290"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="203">
+      <c r="A37" s="42">
         <v>10034</v>
       </c>
       <c r="B37" s="10">
@@ -12451,10 +11856,10 @@
       <c r="D37" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="F37" s="15"/>
+      <c r="F37" s="290"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="203">
+      <c r="A38" s="42">
         <v>10035</v>
       </c>
       <c r="B38" s="10">
@@ -12472,7 +11877,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="203">
+      <c r="A39" s="42">
         <v>10036</v>
       </c>
       <c r="B39" s="10">
@@ -12485,14 +11890,14 @@
         <v>164</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>3083</v>
+        <v>2964</v>
       </c>
       <c r="G39" s="18" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="203">
+      <c r="A40" s="42">
         <v>10037</v>
       </c>
       <c r="B40" s="10">
@@ -12505,20 +11910,19 @@
         <v>711</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>3084</v>
+        <v>2965</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>2548</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="317"/>
       <c r="B41" s="0" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="203">
+      <c r="A42" s="42">
         <v>10038</v>
       </c>
       <c r="B42" s="0">
@@ -12528,20 +11932,20 @@
         <v>51</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>3087</v>
+        <v>2969</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>3036</v>
+        <v>2497</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>3085</v>
+        <v>2974</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>3090</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="203">
+      <c r="A43" s="42">
         <v>10039</v>
       </c>
       <c r="B43" s="0">
@@ -12551,12 +11955,12 @@
         <v>51</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>3088</v>
+        <v>2971</v>
       </c>
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="203">
+      <c r="A44" s="42">
         <v>10040</v>
       </c>
       <c r="B44" s="0">
@@ -12566,14 +11970,11 @@
         <v>51</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>3089</v>
+        <v>2976</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>3086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="F45" s="15"/>
+        <v>2977</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
